--- a/biology/Médecine/Indice_des_primes_d’assurance-maladie/Indice_des_primes_d’assurance-maladie.xlsx
+++ b/biology/Médecine/Indice_des_primes_d’assurance-maladie/Indice_des_primes_d’assurance-maladie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indice_des_primes_d%E2%80%99assurance-maladie</t>
+          <t>Indice_des_primes_d’assurance-maladie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indice des primes d’assurance-maladie (IPAM) mesure l'évolution des primes de l'assurance maladie obligatoire et de l'assurance maladie complémentaire en Suisse.
 Il est établi par l’Office fédéral des assurances sociales (pour l'assurance-maladie de base) et par l'Office fédéral de la statistique (pour le domaine des assurances complémentaires).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Indice_des_primes_d%E2%80%99assurance-maladie</t>
+          <t>Indice_des_primes_d’assurance-maladie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Bases légales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bases légales de l’IPAM sont la loi du 9 octobre 1992 (LSF)[1] et l’ordonnance du 30 juin 1992 concernant l'exécution des relevés statistiques fédéraux (ordonnance sur les relevés statistiques)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bases légales de l’IPAM sont la loi du 9 octobre 1992 (LSF) et l’ordonnance du 30 juin 1992 concernant l'exécution des relevés statistiques fédéraux (ordonnance sur les relevés statistiques).
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Indice_des_primes_d%E2%80%99assurance-maladie</t>
+          <t>Indice_des_primes_d’assurance-maladie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Type d’enquête</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’IPAM est établi à l’aide d’une enquête par échantillonnage réalisée en ligne (par courrier électronique). Une enquête exhaustive est réalisée pour le domaine de l'assurance-maladie de base ; pour les assurances complémentaires, seuls les plus grands assureurs, représentant environ 70 % du marché total, sont considérés. La participation à l’enquête est obligatoire.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Indice_des_primes_d%E2%80%99assurance-maladie</t>
+          <t>Indice_des_primes_d’assurance-maladie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Caractères relevés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Primes d'assurance-maladie pour le domaine de l'assurance de base et pour celui des assurances complémentaires. Sont relevés aux niveaux fédéral et cantonal les primes annuelles pour les nouveaux contrats de l'assurance-maladie de base ainsi que les assurances complémentaires par canton et par classe d'âges.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Indice_des_primes_d%E2%80%99assurance-maladie</t>
+          <t>Indice_des_primes_d’assurance-maladie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Réalisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L’enquête de l’IPAM est réalisée depuis 1999 chaque année dans la période allant d'octobre à novembre.
 </t>
